--- a/biology/Médecine/Tératome_sacro-coccygien/Tératome_sacro-coccygien.xlsx
+++ b/biology/Médecine/Tératome_sacro-coccygien/Tératome_sacro-coccygien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9ratome_sacro-coccygien</t>
+          <t>Tératome_sacro-coccygien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tératome sacro-coccygien est une maladie rare qui se présente le plus fréquemment chez les enfants de sexe féminin.
-Il s'agit d'une tumeur le plus souvent bénigne, détectable avant la naissance et qui ne survient que chez 1 nouveau-né sur 35 000-40 000[1].
-Il peut également affecter des enfants et des adultes[2].
+Il s'agit d'une tumeur le plus souvent bénigne, détectable avant la naissance et qui ne survient que chez 1 nouveau-né sur 35 000-40 000.
+Il peut également affecter des enfants et des adultes.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9ratome_sacro-coccygien</t>
+          <t>Tératome_sacro-coccygien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tératomes de ce type se classifient selon la Classification d'Altman, qui distingue quatre types selon la localisation et l'extension pelvienne de la tumeur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tératomes de ce type se classifient selon la Classification d'Altman, qui distingue quatre types selon la localisation et l'extension pelvienne de la tumeur.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T%C3%A9ratome_sacro-coccygien</t>
+          <t>Tératome_sacro-coccygien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Développement embryonnaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tératome sacro-coccygien se développe à partie de cellules ayant migré dans une mauvaise direction. Les tumeurs congénitales kystiques évoluent alors aux dépens des cellules pluri-potentielles, capables de constituer des tissus dérivés des trois feuillets embryonnaires (ectoblaste, mésoblaste et endoblaste).
 </t>
